--- a/gen_plates.xlsx
+++ b/gen_plates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angseung\VScode\kor_license_plate_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0ACE2A-CCAD-4D4F-914C-1CAE45929649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02790E84-33C9-4408-8050-E770FCD42014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6DB26215-BCC3-49EF-9635-7703A69967B3}"/>
   </bookViews>
@@ -678,7 +678,7 @@
   <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -713,12 +713,12 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>41599</v>
+        <v>41588</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
         <f>D2-C2</f>
-        <v>-41599</v>
+        <v>-41588</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -729,12 +729,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>36111</v>
+        <v>36104</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E11" si="0">D3-C3</f>
-        <v>-36111</v>
+        <v>-36104</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -745,12 +745,12 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>39269</v>
+        <v>39260</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>-39269</v>
+        <v>-39260</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -761,12 +761,12 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>36825</v>
+        <v>36812</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>-36825</v>
+        <v>-36812</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -777,12 +777,12 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>34936</v>
+        <v>34926</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>-34936</v>
+        <v>-34926</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -793,12 +793,12 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>39741</v>
+        <v>39721</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>-39741</v>
+        <v>-39721</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -809,12 +809,12 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>36770</v>
+        <v>36764</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>-36770</v>
+        <v>-36764</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -825,12 +825,12 @@
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>29252</v>
+        <v>29243</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>-29252</v>
+        <v>-29243</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -841,12 +841,12 @@
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>30022</v>
+        <v>30005</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>-30022</v>
+        <v>-30005</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -857,12 +857,12 @@
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <v>28474</v>
+        <v>28469</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>-28474</v>
+        <v>-28469</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -876,11 +876,11 @@
         <v>1503</v>
       </c>
       <c r="D12" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ref="E12:E75" si="1">D12-C12</f>
-        <v>440</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -894,11 +894,11 @@
         <v>1585</v>
       </c>
       <c r="D13" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>358</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -912,11 +912,11 @@
         <v>1894</v>
       </c>
       <c r="D14" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -930,11 +930,11 @@
         <v>1804</v>
       </c>
       <c r="D15" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>139</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -948,11 +948,11 @@
         <v>1629</v>
       </c>
       <c r="D16" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>314</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -966,11 +966,11 @@
         <v>1585</v>
       </c>
       <c r="D17" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>358</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -984,11 +984,11 @@
         <v>1638</v>
       </c>
       <c r="D18" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>305</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1002,11 +1002,11 @@
         <v>1325</v>
       </c>
       <c r="D19" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>618</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1017,14 +1017,14 @@
         <v>18</v>
       </c>
       <c r="C20" s="1">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D20" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1038,11 +1038,11 @@
         <v>1650</v>
       </c>
       <c r="D21" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>293</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1053,14 +1053,14 @@
         <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D22" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1071,12 +1071,15 @@
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="D23" s="1">
-        <v>1943</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>3000</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="1"/>
+        <v>964</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1089,11 +1092,11 @@
         <v>1450</v>
       </c>
       <c r="D24" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>493</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1107,11 +1110,11 @@
         <v>1895</v>
       </c>
       <c r="D25" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1122,14 +1125,14 @@
         <v>24</v>
       </c>
       <c r="C26" s="1">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D26" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>539</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1140,14 +1143,14 @@
         <v>25</v>
       </c>
       <c r="C27" s="1">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D27" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>246</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1161,11 +1164,11 @@
         <v>1045</v>
       </c>
       <c r="D28" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>898</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1179,11 +1182,11 @@
         <v>1498</v>
       </c>
       <c r="D29" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>445</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1197,11 +1200,11 @@
         <v>1880</v>
       </c>
       <c r="D30" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1212,14 +1215,14 @@
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D31" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="1"/>
-        <v>449</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1230,12 +1233,15 @@
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <f>SUM($D$52:$D$85)*(35/34) / 10</f>
+        <v>5249.9999999999991</v>
+      </c>
       <c r="E32" s="1">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>5249.9999999999991</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1246,12 +1252,15 @@
         <v>31</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <f>SUM($D$52:$D$85)*(35/34) / 10</f>
+        <v>5249.9999999999991</v>
+      </c>
       <c r="E33" s="1">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>5249.9999999999991</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1265,11 +1274,11 @@
         <v>1402</v>
       </c>
       <c r="D34" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="1"/>
-        <v>541</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1280,14 +1289,14 @@
         <v>33</v>
       </c>
       <c r="C35" s="1">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D35" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>172</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1301,9 +1310,12 @@
         <v>2027</v>
       </c>
       <c r="D36" s="1">
-        <v>1943</v>
-      </c>
-      <c r="E36" s="1"/>
+        <v>3000</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="1"/>
+        <v>973</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
@@ -1313,12 +1325,15 @@
         <v>35</v>
       </c>
       <c r="C37" s="1">
-        <v>2</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <f>SUM($D$52:$D$85)*(35/34) / 10</f>
+        <v>5249.9999999999991</v>
+      </c>
       <c r="E37" s="1">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>5249.9999999999991</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1329,14 +1344,14 @@
         <v>36</v>
       </c>
       <c r="C38" s="1">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D38" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1350,11 +1365,11 @@
         <v>1676</v>
       </c>
       <c r="D39" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="1"/>
-        <v>267</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1368,11 +1383,11 @@
         <v>1447</v>
       </c>
       <c r="D40" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="1"/>
-        <v>496</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1383,12 +1398,15 @@
         <v>39</v>
       </c>
       <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <f>SUM($D$52:$D$85)*(35/34) / 10</f>
+        <v>5249.9999999999991</v>
+      </c>
       <c r="E41" s="1">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>5249.9999999999991</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1399,14 +1417,14 @@
         <v>40</v>
       </c>
       <c r="C42" s="1">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D42" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="1"/>
-        <v>232</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1420,9 +1438,12 @@
         <v>2158</v>
       </c>
       <c r="D43" s="1">
-        <v>1943</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>3000</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="1"/>
+        <v>842</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -1432,14 +1453,14 @@
         <v>42</v>
       </c>
       <c r="C44" s="1">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D44" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="1"/>
-        <v>273</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1450,12 +1471,15 @@
         <v>43</v>
       </c>
       <c r="C45" s="1">
-        <v>3</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <f>SUM($D$52:$D$85)*(35/34) / 10</f>
+        <v>5249.9999999999991</v>
+      </c>
       <c r="E45" s="1">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>5249.9999999999991</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1466,14 +1490,14 @@
         <v>44</v>
       </c>
       <c r="C46" s="1">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D46" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="1"/>
-        <v>494</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1487,11 +1511,11 @@
         <v>1857</v>
       </c>
       <c r="D47" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1502,14 +1526,14 @@
         <v>46</v>
       </c>
       <c r="C48" s="1">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D48" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" si="1"/>
-        <v>342</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1523,11 +1547,11 @@
         <v>1675</v>
       </c>
       <c r="D49" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E49" s="1">
         <f t="shared" si="1"/>
-        <v>268</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1541,11 +1565,11 @@
         <v>66</v>
       </c>
       <c r="D50" s="1">
-        <v>1943</v>
+        <v>3000</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" si="1"/>
-        <v>1877</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1559,9 +1583,12 @@
         <v>2803</v>
       </c>
       <c r="D51" s="1">
-        <v>1943</v>
-      </c>
-      <c r="E51" s="1"/>
+        <v>3000</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="1"/>
+        <v>197</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
@@ -1574,11 +1601,11 @@
         <v>0</v>
       </c>
       <c r="D52" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1592,11 +1619,11 @@
         <v>0</v>
       </c>
       <c r="D53" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1610,11 +1637,11 @@
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1628,11 +1655,11 @@
         <v>0</v>
       </c>
       <c r="D55" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E55" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1646,11 +1673,11 @@
         <v>0</v>
       </c>
       <c r="D56" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E56" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1664,11 +1691,11 @@
         <v>0</v>
       </c>
       <c r="D57" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1682,11 +1709,11 @@
         <v>0</v>
       </c>
       <c r="D58" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1700,11 +1727,11 @@
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E59" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1718,11 +1745,11 @@
         <v>0</v>
       </c>
       <c r="D60" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E60" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1736,11 +1763,11 @@
         <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1754,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="D62" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1772,11 +1799,11 @@
         <v>0</v>
       </c>
       <c r="D63" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -1790,11 +1817,11 @@
         <v>0</v>
       </c>
       <c r="D64" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -1808,11 +1835,11 @@
         <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E65" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -1826,11 +1853,11 @@
         <v>0</v>
       </c>
       <c r="D66" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E66" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -1844,11 +1871,11 @@
         <v>0</v>
       </c>
       <c r="D67" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E67" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -1862,11 +1889,11 @@
         <v>0</v>
       </c>
       <c r="D68" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E68" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -1880,11 +1907,11 @@
         <v>0</v>
       </c>
       <c r="D69" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E69" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -1898,11 +1925,11 @@
         <v>0</v>
       </c>
       <c r="D70" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E70" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -1916,11 +1943,11 @@
         <v>0</v>
       </c>
       <c r="D71" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E71" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -1934,11 +1961,11 @@
         <v>0</v>
       </c>
       <c r="D72" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E72" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -1952,11 +1979,11 @@
         <v>0</v>
       </c>
       <c r="D73" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -1970,11 +1997,11 @@
         <v>0</v>
       </c>
       <c r="D74" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E74" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -1988,11 +2015,11 @@
         <v>0</v>
       </c>
       <c r="D75" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E75" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2006,11 +2033,11 @@
         <v>0</v>
       </c>
       <c r="D76" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E76" s="1">
         <f t="shared" ref="E76:E85" si="2">D76-C76</f>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2024,11 +2051,11 @@
         <v>0</v>
       </c>
       <c r="D77" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E77" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2042,11 +2069,11 @@
         <v>0</v>
       </c>
       <c r="D78" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E78" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2060,11 +2087,11 @@
         <v>0</v>
       </c>
       <c r="D79" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E79" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2078,11 +2105,11 @@
         <v>0</v>
       </c>
       <c r="D80" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E80" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2096,11 +2123,11 @@
         <v>0</v>
       </c>
       <c r="D81" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E81" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2114,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="D82" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E82" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2132,11 +2159,11 @@
         <v>0</v>
       </c>
       <c r="D83" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E83" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2150,11 +2177,11 @@
         <v>0</v>
       </c>
       <c r="D84" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E84" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2168,17 +2195,17 @@
         <v>0</v>
       </c>
       <c r="D85" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E85" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D86">
         <f>SUM(E12:E85)</f>
-        <v>45841</v>
+        <v>124855</v>
       </c>
     </row>
   </sheetData>

--- a/gen_plates.xlsx
+++ b/gen_plates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angseung\VScode\kor_license_plate_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02790E84-33C9-4408-8050-E770FCD42014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C9A629-373D-4DFB-82FE-9FAFADC3EE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6DB26215-BCC3-49EF-9635-7703A69967B3}"/>
   </bookViews>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1033FB53-8DB5-4AEC-A20F-0A8392146D43}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1236,12 +1236,12 @@
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <f>SUM($D$52:$D$85)*(35/34) / 10</f>
-        <v>5249.9999999999991</v>
+        <f>SUM($D$52:$D$85)*(35/34) / 15</f>
+        <v>3499.9999999999995</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="1"/>
-        <v>5249.9999999999991</v>
+        <v>3499.9999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1255,12 +1255,12 @@
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <f>SUM($D$52:$D$85)*(35/34) / 10</f>
-        <v>5249.9999999999991</v>
+        <f>SUM($D$52:$D$85)*(35/34) / 15</f>
+        <v>3499.9999999999995</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="1"/>
-        <v>5249.9999999999991</v>
+        <v>3499.9999999999995</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1328,12 +1328,12 @@
         <v>0</v>
       </c>
       <c r="D37" s="1">
-        <f>SUM($D$52:$D$85)*(35/34) / 10</f>
-        <v>5249.9999999999991</v>
+        <f>SUM($D$52:$D$85)*(35/34) / 15</f>
+        <v>3499.9999999999995</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="1"/>
-        <v>5249.9999999999991</v>
+        <v>3499.9999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1401,12 +1401,12 @@
         <v>0</v>
       </c>
       <c r="D41" s="1">
-        <f>SUM($D$52:$D$85)*(35/34) / 10</f>
-        <v>5249.9999999999991</v>
+        <f>SUM($D$52:$D$85)*(35/34) / 15</f>
+        <v>3499.9999999999995</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="1"/>
-        <v>5249.9999999999991</v>
+        <v>3499.9999999999995</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1474,12 +1474,12 @@
         <v>0</v>
       </c>
       <c r="D45" s="1">
-        <f>SUM($D$52:$D$85)*(35/34) / 10</f>
-        <v>5249.9999999999991</v>
+        <f>SUM($D$52:$D$85)*(35/34) / 15</f>
+        <v>3499.9999999999995</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="1"/>
-        <v>5249.9999999999991</v>
+        <v>3499.9999999999995</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2205,7 +2205,7 @@
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D86">
         <f>SUM(E12:E85)</f>
-        <v>124855</v>
+        <v>116105</v>
       </c>
     </row>
   </sheetData>
